--- a/com.mw.python/test/raw-model-v5.xlsx
+++ b/com.mw.python/test/raw-model-v5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AH$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$86</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
@@ -1094,37 +1094,37 @@
   <dimension ref="A1:AG86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="4" customWidth="1"/>
     <col min="8" max="9" width="7" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="4" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="6.109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" style="4" customWidth="1"/>
-    <col min="18" max="20" width="8.88671875" style="4"/>
-    <col min="21" max="21" width="7.21875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="4"/>
+    <col min="12" max="12" width="5.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="4.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="6.125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="6.75" style="4" customWidth="1"/>
+    <col min="16" max="16" width="5.5" style="4" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="4" customWidth="1"/>
+    <col min="18" max="20" width="8.875" style="4"/>
+    <col min="21" max="21" width="7.25" style="4" customWidth="1"/>
+    <col min="22" max="22" width="7.375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" ht="14.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="13.2" customHeight="1">
+    <row r="3" spans="1:33" ht="13.15" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" ht="14.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" ht="14.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" ht="14.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" ht="14.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" ht="14.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="20.399999999999999" customHeight="1">
+    <row r="11" spans="1:33" ht="20.45" customHeight="1">
       <c r="A11" s="5">
         <v>11</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" ht="14.25">
       <c r="A14" s="5">
         <v>15</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="13.8" customHeight="1">
+    <row r="16" spans="1:33" ht="13.9" customHeight="1">
       <c r="A16" s="5">
         <v>17</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1">
+    <row r="17" spans="1:27" ht="14.25">
       <c r="A17" s="5">
         <v>18</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1">
+    <row r="18" spans="1:27" ht="14.25">
       <c r="A18" s="5">
         <v>19</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1">
+    <row r="19" spans="1:27" ht="14.25">
       <c r="A19" s="5">
         <v>20</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" hidden="1">
+    <row r="20" spans="1:27" ht="14.25">
       <c r="A20" s="5">
         <v>21</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="14.25">
       <c r="A21" s="5">
         <v>22</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="14.25">
       <c r="A22" s="5">
         <v>23</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="14.25">
       <c r="A23" s="5">
         <v>24</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="14.25">
       <c r="A24" s="5">
         <v>25</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="14.25">
       <c r="A25" s="5">
         <v>26</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="14.25">
       <c r="A26" s="5">
         <v>27</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="14.25">
       <c r="A27" s="5">
         <v>28</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" ht="14.25">
       <c r="A28" s="5">
         <v>29</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" ht="14.25">
       <c r="A29" s="5">
         <v>30</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" ht="14.25">
       <c r="A30" s="5">
         <v>34</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" ht="14.25">
       <c r="A31" s="5">
         <v>35</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" ht="14.25">
       <c r="A32" s="5">
         <v>36</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" ht="14.25">
       <c r="A33" s="5">
         <v>37</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" ht="14.25">
       <c r="A34" s="5">
         <v>38</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" ht="14.25">
       <c r="A35" s="5">
         <v>39</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" ht="14.25">
       <c r="A36" s="5">
         <v>40</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" ht="14.25">
       <c r="A37" s="5">
         <v>42</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" ht="14.25">
       <c r="A38" s="5">
         <v>43</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" ht="14.25">
       <c r="A39" s="5">
         <v>44</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" ht="14.25">
       <c r="A40" s="5">
         <v>45</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" ht="14.25">
       <c r="A41" s="5">
         <v>46</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" ht="14.25">
       <c r="A42" s="5">
         <v>47</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" ht="14.25">
       <c r="A43" s="5">
         <v>48</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" ht="14.25">
       <c r="A44" s="9">
         <v>49</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" ht="14.25">
       <c r="A45" s="5">
         <v>50</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" ht="14.25">
       <c r="A46" s="5">
         <v>52</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" ht="14.25">
       <c r="A47" s="5">
         <v>53</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" ht="14.25">
       <c r="A48" s="5">
         <v>54</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" ht="14.25">
       <c r="A50" s="5">
         <v>56</v>
       </c>
@@ -5329,9 +5329,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" ht="14.25">
       <c r="A51" s="5">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>59</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" ht="14.25">
       <c r="A52" s="5">
         <v>61</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="13.8" customHeight="1">
+    <row r="53" spans="1:27" ht="13.9" customHeight="1">
       <c r="A53" s="9">
         <v>60</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" ht="14.25">
       <c r="A54" s="5">
         <v>59</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" ht="14.25">
       <c r="A55" s="5">
         <v>57</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" ht="14.25">
       <c r="A56" s="5">
         <v>64</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" ht="14.25">
       <c r="A57" s="5">
         <v>63</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" ht="14.25">
       <c r="A58" s="5">
         <v>65</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" ht="14.25">
       <c r="A59" s="5">
         <v>66</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" ht="14.25">
       <c r="A60" s="5">
         <v>67</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" ht="14.25">
       <c r="A61" s="5">
         <v>68</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" ht="14.25">
       <c r="A62" s="5">
         <v>69</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" ht="14.25">
       <c r="A63" s="5">
         <v>70</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" ht="14.25">
       <c r="A64" s="5">
         <v>71</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" ht="14.25">
       <c r="A65" s="5">
         <v>72</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" ht="14.25">
       <c r="A66" s="5">
         <v>73</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" ht="14.25">
       <c r="A67" s="5">
         <v>74</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" ht="14.25">
       <c r="A68" s="5">
         <v>75</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" ht="14.25">
       <c r="A69" s="5">
         <v>76</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" ht="14.25">
       <c r="A70" s="5">
         <v>77</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" ht="14.25">
       <c r="A71" s="5">
         <v>78</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" ht="14.25">
       <c r="A72" s="5">
         <v>79</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" ht="14.25">
       <c r="A73" s="5">
         <v>80</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" ht="14.25">
       <c r="A74" s="5">
         <v>81</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" ht="14.25">
       <c r="A76" s="5">
         <v>83</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" ht="14.25">
       <c r="A77" s="5">
         <v>84</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" ht="14.25">
       <c r="A78" s="5">
         <v>105</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" ht="14.25">
       <c r="A79" s="5">
         <v>142</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="22.8" customHeight="1">
+    <row r="80" spans="1:27" ht="22.9" customHeight="1">
       <c r="A80" s="5">
         <v>145</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="16.2" customHeight="1">
+    <row r="81" spans="1:33" ht="16.149999999999999" customHeight="1">
       <c r="A81" s="5">
         <v>148</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="17.399999999999999" customHeight="1">
+    <row r="82" spans="1:33" ht="17.45" customHeight="1">
       <c r="A82" s="5">
         <v>149</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="20.399999999999999" customHeight="1">
+    <row r="83" spans="1:33" ht="20.45" customHeight="1">
       <c r="A83" s="5">
         <v>150</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:33" ht="14.25">
       <c r="A84" s="5">
         <v>155</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:33" ht="14.25">
       <c r="A85" s="5">
         <v>160</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" ht="14.25">
       <c r="A86" s="5">
         <v>162</v>
       </c>
@@ -8357,7 +8357,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH1"/>
+  <autoFilter ref="A1:AA86"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8369,7 +8369,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8382,7 +8382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
